--- a/Assignment/module2/assignment2/facebook.xlsx
+++ b/Assignment/module2/assignment2/facebook.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\assignmentsquestionexcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Software Testing\Assignment\module2\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762D7A3-42D1-4CA5-9E3E-4CA0F7DD0F98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F05DA-0DC4-42ED-B13E-C9A4D0396357}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" xr2:uid="{201DBD5C-C2A5-4FB6-840D-08710E7F917D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810" activeTab="1" xr2:uid="{201DBD5C-C2A5-4FB6-840D-08710E7F917D}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Testcase" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{878FF2A8-BEAE-43C5-9CEA-BD6B833DA9EE}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -946,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C607130-2038-422B-8001-3CA4E53CE8D6}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
